--- a/biology/Botanique/Rinorea_fausteana/Rinorea_fausteana.xlsx
+++ b/biology/Botanique/Rinorea_fausteana/Rinorea_fausteana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rinorea fausteana est une espèce de plantes de la famille des Violaceae et du genre Rinorea. C'est une plante endémique du Cameroun que l'on trouve sur les monts Bakossi et les monts Rumpi[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rinorea fausteana est une espèce de plantes de la famille des Violaceae et du genre Rinorea. C'est une plante endémique du Cameroun que l'on trouve sur les monts Bakossi et les monts Rumpi.
 </t>
         </is>
       </c>
